--- a/documentation/Product_Backlog.xlsx
+++ b/documentation/Product_Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/daf4c36fd6410f15/Desktop/JamesBridgesHW5_Sprint1/TextAdventureGame/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lanthorr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{74866A28-4BAB-4A0A-B5C3-34B3C6CF265C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA75291E-879F-4507-94D1-A1FFFE72D186}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49238FAE-0840-490A-BBD4-1C10EC8F8825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="16116" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Priority</t>
   </si>
@@ -56,9 +56,33 @@
     <t>Player</t>
   </si>
   <si>
+    <t>to move through the world</t>
+  </si>
+  <si>
+    <t>I can reach the goal</t>
+  </si>
+  <si>
     <t>I can alter the world/my character</t>
   </si>
   <si>
+    <t>see a description of current location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I know where I am </t>
+  </si>
+  <si>
+    <t>see action prompts</t>
+  </si>
+  <si>
+    <t>I know what I can do at current location</t>
+  </si>
+  <si>
+    <t>see player details</t>
+  </si>
+  <si>
+    <t>I know what I have and my current status</t>
+  </si>
+  <si>
     <t>use item from inventory</t>
   </si>
   <si>
@@ -68,9 +92,6 @@
     <t>I am able to use the item</t>
   </si>
   <si>
-    <t>drop item</t>
-  </si>
-  <si>
     <t>I can manage available inventory space</t>
   </si>
   <si>
@@ -80,10 +101,13 @@
     <t>interact with npc (e.g., fight enemy / talk to person / open door)</t>
   </si>
   <si>
-    <t>the game to be dynamically generated</t>
-  </si>
-  <si>
-    <t>I can’t predict the outcome of the game</t>
+    <t>the system to be able to generate new maps</t>
+  </si>
+  <si>
+    <t>each playthrough of the game is unique</t>
+  </si>
+  <si>
+    <t>drop item at location</t>
   </si>
 </sst>
 </file>
@@ -437,22 +461,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -469,55 +493,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>5</v>
@@ -526,55 +550,115 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E11">
-    <sortCondition ref="B2:B11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E15">
+    <sortCondition ref="B2:B15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/Product_Backlog.xlsx
+++ b/documentation/Product_Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lanthorr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/daf4c36fd6410f15/Desktop/JamesBridgesHW5_Sprint1/TextAdventureGame/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49238FAE-0840-490A-BBD4-1C10EC8F8825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{49238FAE-0840-490A-BBD4-1C10EC8F8825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C083DC33-7945-427D-8F68-409F9EE9ED8C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3984" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,20 +463,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -493,7 +493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3">
         <v>0</v>
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1</v>
@@ -583,7 +583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>2</v>
@@ -613,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>3</v>
@@ -628,28 +628,28 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
